--- a/DATA_goal/Junction_Flooding_286.xlsx
+++ b/DATA_goal/Junction_Flooding_286.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41718.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.7</v>
+        <v>1.37</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.52</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>29.67</v>
+        <v>2.97</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>22.25</v>
+        <v>2.23</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>31.69</v>
+        <v>3.17</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.75</v>
+        <v>1.68</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.92</v>
+        <v>0.99</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.86</v>
+        <v>1.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.65</v>
+        <v>0.96</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>157.43</v>
+        <v>15.74</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.97</v>
+        <v>3</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.39</v>
+        <v>1.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>16.98</v>
+        <v>1.7</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>28.69</v>
+        <v>2.87</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41718.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.55</v>
+        <v>1.55</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>34.04</v>
+        <v>3.4</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.93</v>
+        <v>2.69</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>46.05</v>
+        <v>4.6</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.96</v>
+        <v>1.9</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.93</v>
+        <v>1.19</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.57</v>
+        <v>1.36</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>179.23</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>34.27</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>22.68</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>9.99</v>
-      </c>
       <c r="AB3" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.63</v>
+        <v>1.06</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>42.27</v>
+        <v>4.23</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41718.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.96</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>18.08</v>
+        <v>1.81</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.35</v>
+        <v>0.54</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.03</v>
+        <v>0.3</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.82</v>
+        <v>0.48</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>45.37</v>
+        <v>4.54</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.41</v>
+        <v>0.64</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.23</v>
+        <v>0.32</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.41</v>
+        <v>0.84</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>17.04</v>
+        <v>1.7</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41718.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.25</v>
+        <v>3.32</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.85</v>
+        <v>2.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>43.53</v>
+        <v>4.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.5</v>
+        <v>1.85</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>174.63</v>
+        <v>17.46</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.32</v>
+        <v>3.33</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.28</v>
+        <v>2.23</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.48</v>
+        <v>2.15</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.75</v>
+        <v>0.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.4</v>
+        <v>3.94</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41718.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>21.45</v>
+        <v>2.14</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>15.98</v>
+        <v>1.6</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>46.83</v>
+        <v>4.68</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>38.2</v>
+        <v>3.82</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>64.45999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>26.06</v>
+        <v>2.61</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>18.78</v>
+        <v>1.88</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>19.95</v>
+        <v>1.99</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>23.97</v>
+        <v>2.4</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>249.06</v>
+        <v>24.91</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>47.09</v>
+        <v>4.71</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.55</v>
+        <v>1.55</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>31.67</v>
+        <v>3.17</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>16.6</v>
+        <v>1.66</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>31.64</v>
+        <v>3.16</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>19.69</v>
+        <v>1.97</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>58.67</v>
+        <v>5.87</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41718.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.05</v>
+        <v>1.31</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>38.26</v>
+        <v>3.83</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>31.2</v>
+        <v>3.12</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>55.05</v>
+        <v>5.5</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>19.59</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>202.13</v>
+        <v>20.21</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>38.52</v>
+        <v>3.85</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>25.9</v>
+        <v>2.59</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>26.59</v>
+        <v>2.66</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>50.13</v>
+        <v>5.01</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41718.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>11.85</v>
+        <v>1.19</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>25.93</v>
+        <v>2.59</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>21.06</v>
+        <v>2.11</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>38.61</v>
+        <v>3.86</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>10.39</v>
+        <v>1.04</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>11.06</v>
+        <v>1.11</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>134.6</v>
+        <v>13.46</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>26.14</v>
+        <v>2.61</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>18.44</v>
+        <v>1.84</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>35.21</v>
+        <v>3.52</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41718.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>34.91</v>
+        <v>3.49</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>28.54</v>
+        <v>2.85</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.55</v>
+        <v>1.26</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>48.47</v>
+        <v>4.85</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>19.43</v>
+        <v>1.94</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>14.87</v>
+        <v>1.49</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>183.81</v>
+        <v>18.38</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>35.1</v>
+        <v>3.51</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>23.63</v>
+        <v>2.36</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>23.61</v>
+        <v>2.36</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.65</v>
+        <v>1.07</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>14.7</v>
+        <v>1.47</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>43.99</v>
+        <v>4.4</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41718.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>21.66</v>
+        <v>2.17</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>16.22</v>
+        <v>1.62</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>47.25</v>
+        <v>4.72</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>38.77</v>
+        <v>3.88</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>17.02</v>
+        <v>1.7</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>65.58</v>
+        <v>6.56</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>26.29</v>
+        <v>2.63</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.75</v>
+        <v>1.17</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>18.95</v>
+        <v>1.9</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>20.11</v>
+        <v>2.01</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>24.24</v>
+        <v>2.42</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>251.35</v>
+        <v>25.13</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>47.51</v>
+        <v>4.75</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>32.06</v>
+        <v>3.21</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>16.82</v>
+        <v>1.68</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>32.07</v>
+        <v>3.21</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>19.91</v>
+        <v>1.99</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>59.6</v>
+        <v>5.96</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>19.61</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_286.xlsx
+++ b/DATA_goal/Junction_Flooding_286.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41718.34027777778</v>
+        <v>44967.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.37</v>
+        <v>1.07</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.97</v>
+        <v>2.36</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.23</v>
+        <v>1.71</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.06</v>
+        <v>0.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.17</v>
+        <v>2.42</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="K2" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD2" s="4" t="n">
         <v>0.99</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>15.74</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="V2" s="4" t="n">
+      <c r="AE2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AH2" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>1.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41718.34722222222</v>
+        <v>44967.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.4</v>
+        <v>4.17</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.69</v>
+        <v>3.33</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.6</v>
+        <v>5.54</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.82</v>
+        <v>1.02</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.79</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>17.92</v>
+        <v>22.16</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.43</v>
+        <v>4.2</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.29</v>
+        <v>2.81</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.41</v>
+        <v>1.76</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.23</v>
+        <v>5.05</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41718.35416666666</v>
+        <v>44967.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.71</v>
-      </c>
       <c r="G4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.28</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41718.36111111111</v>
+        <v>44967.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.52</v>
+        <v>0.9</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.12</v>
+        <v>0.67</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>17.46</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.19</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>2.15</v>
+        <v>1.29</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.58</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.53</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.62</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.39</v>
+        <v>0.84</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.94</v>
+        <v>2.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.36</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.38</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41718.36805555555</v>
+        <v>44967.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.14</v>
+        <v>21.51</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.6</v>
+        <v>16.09</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.11</v>
+        <v>1.15</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.68</v>
+        <v>47.02</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.82</v>
+        <v>38.36</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.68</v>
+        <v>16.89</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.45</v>
+        <v>62.94</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.61</v>
+        <v>26.15</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.16</v>
+        <v>11.71</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.71</v>
+        <v>17.16</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.88</v>
+        <v>18.86</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.99</v>
+        <v>20.07</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.54</v>
+        <v>5.32</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.68</v>
+        <v>16.92</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.4</v>
+        <v>24.05</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.42</v>
+        <v>14.26</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.72</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>24.91</v>
+        <v>250.19</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.71</v>
+        <v>47.25</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.55</v>
+        <v>15.62</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.17</v>
+        <v>31.77</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.66</v>
+        <v>16.69</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.25</v>
+        <v>2.36</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.16</v>
+        <v>31.36</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.37</v>
+        <v>13.79</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.43</v>
+        <v>14.36</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.97</v>
+        <v>19.83</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.87</v>
+        <v>57.12</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41718.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41718.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41718.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>18.38</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41718.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>25.13</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41718.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>16.94</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>85.41</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>26.24</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>7.03</v>
+        <v>19.52</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_286.xlsx
+++ b/DATA_goal/Junction_Flooding_286.xlsx
@@ -655,103 +655,103 @@
         <v>44967.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.42</v>
+        <v>124.22</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.83</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.6</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.63</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44967.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.9</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.85</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.17</v>
+        <v>41.72</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.33</v>
+        <v>33.26</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.54</v>
+        <v>55.36</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.32</v>
+        <v>23.24</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.18</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.69</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.7</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.89</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.17</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.99</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>22.16</v>
+        <v>221.58</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.2</v>
+        <v>42.01</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.78</v>
+        <v>27.85</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.81</v>
+        <v>28.07</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.76</v>
+        <v>17.58</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.05</v>
+        <v>50.51</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44967.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.32</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>2.71</v>
+        <v>27.11</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.27</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44967.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.84</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.77</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.03</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.63</v>
+        <v>26.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.14</v>
+        <v>101.37</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.11</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB5" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>2.36</v>
+        <v>23.56</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_286.xlsx
+++ b/DATA_goal/Junction_Flooding_286.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,13 +655,13 @@
         <v>44967.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.33</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>23.56</v>
@@ -670,88 +670,88 @@
         <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.18</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.23</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.35</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.25</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.32</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.19</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.96</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.65</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.22</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.83</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.96</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.6</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.94</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.68</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.63</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.08</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
@@ -759,34 +759,34 @@
         <v>44967.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19</v>
+        <v>18.999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14</v>
+        <v>14.003</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.85</v>
+        <v>1.846</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>41.72</v>
+        <v>41.716</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33.26</v>
+        <v>33.261</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>14.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>55.36</v>
+        <v>55.358</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.24</v>
+        <v>23.238</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.18</v>
+        <v>10.183</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.69</v>
+        <v>14.688</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>16.7</v>
@@ -795,67 +795,67 @@
         <v>17.89</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.61</v>
+        <v>4.609</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.17</v>
+        <v>21.167</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.99</v>
+        <v>12.994</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.36</v>
+        <v>1.359</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.851</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>221.58</v>
+        <v>221.578</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>42.01</v>
+        <v>42.012</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.85</v>
+        <v>27.849</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.66</v>
+        <v>14.658</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.38</v>
+        <v>2.381</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.07</v>
+        <v>28.072</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.03</v>
+        <v>11.031</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.91</v>
+        <v>12.913</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.58</v>
+        <v>17.579</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>50.51</v>
+        <v>50.508</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.64</v>
+        <v>7.639</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44967.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.72</v>
+        <v>2.719</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.89</v>
+        <v>1.893</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.846</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.23</v>
+        <v>6.235</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.32</v>
+        <v>4.318</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.07</v>
+        <v>2.066</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.41</v>
+        <v>15.409</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.46</v>
+        <v>3.461</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.53</v>
+        <v>1.527</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.69</v>
+        <v>1.695</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.79</v>
+        <v>2.794</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.578</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.26</v>
+        <v>2.256</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.14</v>
+        <v>3.137</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.26</v>
+        <v>2.256</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.821</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.246</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.11</v>
+        <v>27.107</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.74</v>
+        <v>6.742</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.08</v>
+        <v>2.082</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.27</v>
+        <v>4.268</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.13</v>
+        <v>2.131</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.549</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.27</v>
+        <v>7.273</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.82</v>
+        <v>1.816</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.09</v>
+        <v>2.087</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.62</v>
+        <v>2.618</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.66</v>
+        <v>14.664</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.61</v>
+        <v>2.609</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44967.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>47.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>38.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.89</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>62.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>250.19</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.77</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>31.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>57.12</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.52</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_286.xlsx
+++ b/DATA_goal/Junction_Flooding_286.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,70 +967,70 @@
         <v>44967.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9</v>
+        <v>8.997</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.66</v>
+        <v>6.661</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.84</v>
+        <v>19.838</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.77</v>
+        <v>15.768</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.03</v>
+        <v>7.026</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.26</v>
+        <v>26.259</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.02</v>
+        <v>11.025</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.86</v>
+        <v>4.856</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.92</v>
+        <v>6.917</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.95</v>
+        <v>7.951</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.544</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.16</v>
+        <v>2.159</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.14</v>
+        <v>7.143</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10</v>
+        <v>9.997999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.22</v>
+        <v>6.217</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.679</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>101.37</v>
+        <v>101.365</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19.85</v>
+        <v>19.849</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.59</v>
+        <v>6.594</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.11</v>
+        <v>13.109</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>6.93</v>
@@ -1039,31 +1039,135 @@
         <v>1.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.92</v>
+        <v>12.923</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.82</v>
+        <v>5.824</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.26</v>
+        <v>5.259</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.16</v>
+        <v>6.161</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.362</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.529</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.56</v>
+        <v>23.565</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>3.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.24</v>
+        <v>8.243</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44967.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>38.36</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>62.94</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>250.19</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>57.12</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>19.52</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_286.xlsx
+++ b/DATA_goal/Junction_Flooding_286.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,70 +967,70 @@
         <v>44967.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.997</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.661</v>
+        <v>6.66</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.838</v>
+        <v>19.84</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.768</v>
+        <v>15.77</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.026</v>
+        <v>7.03</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.259</v>
+        <v>26.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.025</v>
+        <v>11.02</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.856</v>
+        <v>4.86</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.917</v>
+        <v>6.92</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.951</v>
+        <v>7.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.544</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.159</v>
+        <v>2.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.143</v>
+        <v>7.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.997999999999999</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.217</v>
+        <v>6.22</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.679</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>101.365</v>
+        <v>101.37</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19.849</v>
+        <v>19.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.594</v>
+        <v>6.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.109</v>
+        <v>13.11</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>6.93</v>
@@ -1039,135 +1039,31 @@
         <v>1.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.923</v>
+        <v>12.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.824</v>
+        <v>5.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.259</v>
+        <v>5.26</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.161</v>
+        <v>6.16</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.362</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.529</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.565</v>
+        <v>23.56</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>3.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.243</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44967.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>47.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>38.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.89</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>62.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>250.19</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.77</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>31.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>57.12</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.52</v>
+        <v>8.24</v>
       </c>
     </row>
   </sheetData>
